--- a/Document/CloudData.xlsx
+++ b/Document/CloudData.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unameit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Karthik\Karthik\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5805" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5805" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SupportTechnology" sheetId="2" r:id="rId1"/>
     <sheet name="Could" sheetId="1" r:id="rId2"/>
-    <sheet name="Steps" sheetId="3" r:id="rId3"/>
-    <sheet name="DevOpsTools" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Steps" sheetId="3" r:id="rId4"/>
+    <sheet name="DevOpsTools" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Could!$A$1:$G$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Could!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
   <si>
     <t>S.No</t>
   </si>
@@ -337,6 +339,15 @@
   </si>
   <si>
     <t>Scala</t>
+  </si>
+  <si>
+    <t>1. EC2 - types of instance</t>
+  </si>
+  <si>
+    <t>2. Storgae details add</t>
+  </si>
+  <si>
+    <t>GCP</t>
   </si>
 </sst>
 </file>
@@ -370,7 +381,7 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +400,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -402,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -410,6 +427,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,10 +739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -732,10 +750,10 @@
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" customWidth="1"/>
+    <col min="5" max="6" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,27 +767,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -782,11 +803,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -799,11 +820,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -816,11 +837,11 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -833,11 +854,11 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -850,12 +871,12 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -868,11 +889,11 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -885,11 +906,11 @@
       <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -902,11 +923,11 @@
       <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -919,11 +940,11 @@
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+    <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -936,28 +957,28 @@
       <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -970,79 +991,79 @@
       <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1055,11 +1076,11 @@
       <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="E19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1072,22 +1093,22 @@
       <c r="D20" t="s">
         <v>51</v>
       </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="C21">
         <v>53</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
       </c>
-      <c r="E21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1100,146 +1121,146 @@
       <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="E22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>85</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>61</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>85</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D26" t="s">
         <v>64</v>
       </c>
-      <c r="E26" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D27" t="s">
         <v>67</v>
       </c>
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:8" ht="15.75">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D28" t="s">
         <v>70</v>
       </c>
-      <c r="E28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="F28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>68</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D29" t="s">
         <v>72</v>
       </c>
-      <c r="E29" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="F29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1252,11 +1273,11 @@
       <c r="D30" t="s">
         <v>73</v>
       </c>
-      <c r="E30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1269,11 +1290,11 @@
       <c r="D31" t="s">
         <v>76</v>
       </c>
-      <c r="E31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="F31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1286,46 +1307,47 @@
       <c r="D32" t="s">
         <v>78</v>
       </c>
-      <c r="E32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>88</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>89</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>89</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D35" t="s">
@@ -1404,6 +1426,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1436,7 +1487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1447,5 +1498,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/CloudData.xlsx
+++ b/Document/CloudData.xlsx
@@ -9,15 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5805" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5805" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SupportTechnology" sheetId="2" r:id="rId1"/>
     <sheet name="Could" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="Steps" sheetId="3" r:id="rId4"/>
-    <sheet name="DevOpsTools" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="Steps" sheetId="3" r:id="rId3"/>
+    <sheet name="DevOpsTools" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Could!$A$1:$H$35</definedName>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
   <si>
     <t>S.No</t>
   </si>
@@ -341,13 +339,37 @@
     <t>Scala</t>
   </si>
   <si>
-    <t>1. EC2 - types of instance</t>
-  </si>
-  <si>
-    <t>2. Storgae details add</t>
-  </si>
-  <si>
     <t>GCP</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>Helm</t>
+  </si>
+  <si>
+    <t>Jenkins/Other Tools</t>
+  </si>
+  <si>
+    <t>ansible</t>
+  </si>
+  <si>
+    <t>Terraform</t>
+  </si>
+  <si>
+    <t>Openshift</t>
+  </si>
+  <si>
+    <t>App Dynamics</t>
+  </si>
+  <si>
+    <t>Sonar qube</t>
+  </si>
+  <si>
+    <t>check style</t>
   </si>
 </sst>
 </file>
@@ -742,7 +764,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -767,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>84</v>
@@ -1426,39 +1448,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1487,29 +1480,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
